--- a/app/Plantillas/Entrada/PRUEBA_email.xlsx
+++ b/app/Plantillas/Entrada/PRUEBA_email.xlsx
@@ -727,13 +727,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F396FEA-C720-4539-A7B1-9C3596C1E291}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE5FBE6F-9C4F-4B19-84AF-601543A5BF56}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEA8DDE-8B83-45C6-AA2A-DC7412E9C551}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A097C6C-25D8-4686-8162-AE0C00419C37}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0EE320-69EC-473E-899F-3CF1F843F669}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2785E040-2F49-4967-97A2-896C90EA5D4C}"/>
 </file>
--- a/app/Plantillas/Entrada/PRUEBA_email.xlsx
+++ b/app/Plantillas/Entrada/PRUEBA_email.xlsx
@@ -727,13 +727,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE5FBE6F-9C4F-4B19-84AF-601543A5BF56}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42C2B2C7-DFF0-4C78-BD8C-14F4DD354450}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A097C6C-25D8-4686-8162-AE0C00419C37}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4153DCAA-5758-4BB8-A1FE-289D704054D6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2785E040-2F49-4967-97A2-896C90EA5D4C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD4427C-5D96-4A8F-BAE7-66DD66AC9679}"/>
 </file>
--- a/app/Plantillas/Entrada/PRUEBA_email.xlsx
+++ b/app/Plantillas/Entrada/PRUEBA_email.xlsx
@@ -727,13 +727,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42C2B2C7-DFF0-4C78-BD8C-14F4DD354450}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36ECA02B-AB76-483F-A671-C03B913F1462}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4153DCAA-5758-4BB8-A1FE-289D704054D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B765CA48-4D8E-4DDE-A253-F66572FFAC11}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD4427C-5D96-4A8F-BAE7-66DD66AC9679}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B60276A-8C69-42B8-B9ED-1506E54F79E8}"/>
 </file>